--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="10200" xr2:uid="{3D13CFD7-B66F-4462-B9D7-7C98A67E48B5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D13CFD7-B66F-4462-B9D7-7C98A67E48B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+    <sheetView tabSelected="1" topLeftCell="Y6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/RandS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0D9813-8CBA-45EB-8E5A-67C0A8BA579D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D13CFD7-B66F-4462-B9D7-7C98A67E48B5}"/>
   </bookViews>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD12" sqref="AD12"/>
+    <sheetView tabSelected="1" topLeftCell="AK6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO12" sqref="AO12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/RandS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A0D9813-8CBA-45EB-8E5A-67C0A8BA579D}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFBBD84-8374-4AE7-992A-E05E36913A41}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D13CFD7-B66F-4462-B9D7-7C98A67E48B5}"/>
   </bookViews>
@@ -454,12 +454,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -475,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -526,6 +532,12 @@
     <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="175" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -869,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AO12" sqref="AO12"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AR12" sqref="AR12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,28 +974,28 @@
       <c r="W6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="46" t="s">
+      <c r="X6" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="46"/>
+      <c r="Y6" s="52"/>
       <c r="Z6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="46" t="s">
+      <c r="AA6" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="46"/>
+      <c r="AB6" s="52"/>
       <c r="AC6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" s="46" t="s">
+      <c r="AD6" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="46"/>
+      <c r="AG6" s="52"/>
       <c r="AJ6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1026,10 +1038,10 @@
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
-      <c r="AZ6" s="46" t="s">
+      <c r="AZ6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="BA6" s="46"/>
+      <c r="BA6" s="52"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
       <c r="BD6" s="11"/>
@@ -1151,10 +1163,10 @@
       <c r="AE7" t="s">
         <v>51</v>
       </c>
-      <c r="AF7" s="47" t="s">
+      <c r="AF7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="47"/>
+      <c r="AG7" s="53"/>
       <c r="AH7" t="s">
         <v>57</v>
       </c>
@@ -1203,10 +1215,10 @@
       <c r="AW7" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="47" t="s">
+      <c r="AZ7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="BA7" s="47"/>
+      <c r="BA7" s="53"/>
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" t="s">
@@ -1727,35 +1739,35 @@
         <f>AD12/AK12</f>
         <v>0.26302062358733919</v>
       </c>
-      <c r="AO12" s="31">
+      <c r="AO12" s="46">
         <f>R12/(2*3600)</f>
         <v>3.2538632069570236E-3</v>
       </c>
-      <c r="AP12" s="26">
+      <c r="AP12" s="50">
         <f>T12</f>
         <v>0.90486513222494636</v>
       </c>
-      <c r="AQ12" s="26">
+      <c r="AQ12" s="50">
         <f>1/2*R12/3600*(AS12+C12)</f>
         <v>0.84644565987905362</v>
       </c>
-      <c r="AR12" s="38">
+      <c r="AR12" s="49">
         <f>2*(AP12/R12*3600-C12/2)</f>
         <v>231.01453875815153</v>
       </c>
-      <c r="AS12" s="38">
+      <c r="AS12" s="49">
         <f>C12*(1-AU12)/AU12</f>
         <v>213.0606579001649</v>
       </c>
-      <c r="AT12" s="33">
+      <c r="AT12" s="47">
         <f>1-AR12/(AR12+C12)</f>
         <v>0.16927983942867952</v>
       </c>
-      <c r="AU12" s="33">
+      <c r="AU12" s="48">
         <f>1/W12-(1-W12)/(2*W12*AN12)</f>
         <v>0.18096309255048526</v>
       </c>
-      <c r="AV12" s="39">
+      <c r="AV12" s="51">
         <v>0.84830000000000005</v>
       </c>
       <c r="AW12" s="30">

--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwedu-my.sharepoint.com/personal/raghavakrishna_devineni_bwedu_de/Documents/5_PythonFiles/RandS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EFBBD84-8374-4AE7-992A-E05E36913A41}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{032A75C3-FC42-4505-A85C-9224CFA91E94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EC1134-AB6D-485E-AB3F-6FBC08D999C1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{3D13CFD7-B66F-4462-B9D7-7C98A67E48B5}"/>
   </bookViews>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -481,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -531,7 +532,6 @@
     <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="183" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="170" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -542,6 +542,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR12" sqref="AR12"/>
+    <sheetView tabSelected="1" topLeftCell="AO4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AS12" sqref="AS12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,28 +977,28 @@
       <c r="W6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="52" t="s">
+      <c r="X6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="52"/>
+      <c r="Y6" s="51"/>
       <c r="Z6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="52" t="s">
+      <c r="AA6" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="52"/>
+      <c r="AB6" s="51"/>
       <c r="AC6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" s="52" t="s">
+      <c r="AD6" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="52" t="s">
+      <c r="AE6" s="51"/>
+      <c r="AF6" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="52"/>
+      <c r="AG6" s="51"/>
       <c r="AJ6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1038,10 +1041,10 @@
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
-      <c r="AZ6" s="52" t="s">
+      <c r="AZ6" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="BA6" s="52"/>
+      <c r="BA6" s="51"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
       <c r="BD6" s="11"/>
@@ -1163,10 +1166,10 @@
       <c r="AE7" t="s">
         <v>51</v>
       </c>
-      <c r="AF7" s="53" t="s">
+      <c r="AF7" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="53"/>
+      <c r="AG7" s="52"/>
       <c r="AH7" t="s">
         <v>57</v>
       </c>
@@ -1215,10 +1218,10 @@
       <c r="AW7" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="53" t="s">
+      <c r="AZ7" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="BA7" s="53"/>
+      <c r="BA7" s="52"/>
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" t="s">
@@ -1606,7 +1609,7 @@
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="55">
         <f>SUM(M12:O12)/2</f>
         <v>47.074942781905598</v>
       </c>
@@ -1739,38 +1742,38 @@
         <f>AD12/AK12</f>
         <v>0.26302062358733919</v>
       </c>
-      <c r="AO12" s="46">
+      <c r="AO12" s="45">
         <f>R12/(2*3600)</f>
         <v>3.2538632069570236E-3</v>
       </c>
-      <c r="AP12" s="50">
+      <c r="AP12" s="49">
         <f>T12</f>
         <v>0.90486513222494636</v>
       </c>
-      <c r="AQ12" s="50">
+      <c r="AQ12" s="49">
         <f>1/2*R12/3600*(AS12+C12)</f>
         <v>0.84644565987905362</v>
       </c>
-      <c r="AR12" s="49">
+      <c r="AR12" s="48">
         <f>2*(AP12/R12*3600-C12/2)</f>
         <v>231.01453875815153</v>
       </c>
-      <c r="AS12" s="49">
+      <c r="AS12" s="54">
         <f>C12*(1-AU12)/AU12</f>
         <v>213.0606579001649</v>
       </c>
-      <c r="AT12" s="47">
+      <c r="AT12" s="46">
         <f>1-AR12/(AR12+C12)</f>
         <v>0.16927983942867952</v>
       </c>
-      <c r="AU12" s="48">
+      <c r="AU12" s="47">
         <f>1/W12-(1-W12)/(2*W12*AN12)</f>
         <v>0.18096309255048526</v>
       </c>
-      <c r="AV12" s="51">
+      <c r="AV12" s="50">
         <v>0.84830000000000005</v>
       </c>
-      <c r="AW12" s="30">
+      <c r="AW12" s="53">
         <f>AV12*3600</f>
         <v>3053.88</v>
       </c>

--- a/Notes_to_check_theory.xlsx
+++ b/Notes_to_check_theory.xlsx
@@ -538,13 +538,13 @@
     <xf numFmtId="184" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="175" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="184" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="184" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043F9BC7-AB38-4CBE-8994-93731AE59AB9}">
   <dimension ref="A1:BY51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS12" sqref="AS12"/>
+    <sheetView tabSelected="1" topLeftCell="R4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -977,28 +977,28 @@
       <c r="W6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="X6" s="51" t="s">
+      <c r="X6" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="51"/>
+      <c r="Y6" s="54"/>
       <c r="Z6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AA6" s="51" t="s">
+      <c r="AA6" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="AB6" s="51"/>
+      <c r="AB6" s="54"/>
       <c r="AC6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AD6" s="51" t="s">
+      <c r="AD6" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="51" t="s">
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="AG6" s="51"/>
+      <c r="AG6" s="54"/>
       <c r="AJ6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1041,10 +1041,10 @@
       </c>
       <c r="AX6" s="11"/>
       <c r="AY6" s="11"/>
-      <c r="AZ6" s="51" t="s">
+      <c r="AZ6" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="BA6" s="51"/>
+      <c r="BA6" s="54"/>
       <c r="BB6" s="11"/>
       <c r="BC6" s="11"/>
       <c r="BD6" s="11"/>
@@ -1166,10 +1166,10 @@
       <c r="AE7" t="s">
         <v>51</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AG7" s="52"/>
+      <c r="AG7" s="55"/>
       <c r="AH7" t="s">
         <v>57</v>
       </c>
@@ -1218,10 +1218,10 @@
       <c r="AW7" t="s">
         <v>51</v>
       </c>
-      <c r="AZ7" s="52" t="s">
+      <c r="AZ7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="BA7" s="52"/>
+      <c r="BA7" s="55"/>
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" t="s">
@@ -1609,7 +1609,7 @@
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="53">
         <f>SUM(M12:O12)/2</f>
         <v>47.074942781905598</v>
       </c>
@@ -1758,7 +1758,7 @@
         <f>2*(AP12/R12*3600-C12/2)</f>
         <v>231.01453875815153</v>
       </c>
-      <c r="AS12" s="54">
+      <c r="AS12" s="52">
         <f>C12*(1-AU12)/AU12</f>
         <v>213.0606579001649</v>
       </c>
@@ -1773,7 +1773,7 @@
       <c r="AV12" s="50">
         <v>0.84830000000000005</v>
       </c>
-      <c r="AW12" s="53">
+      <c r="AW12" s="51">
         <f>AV12*3600</f>
         <v>3053.88</v>
       </c>
